--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H2">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I2">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J2">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N2">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q2">
-        <v>0.4301513291988888</v>
+        <v>0.57782757193</v>
       </c>
       <c r="R2">
-        <v>3.871361962789999</v>
+        <v>5.200448147369999</v>
       </c>
       <c r="S2">
-        <v>0.001432723363201831</v>
+        <v>0.0006861985779973294</v>
       </c>
       <c r="T2">
-        <v>0.00143272336320183</v>
+        <v>0.0006861985779973294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H3">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I3">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J3">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.890544</v>
       </c>
       <c r="O3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q3">
-        <v>0.2984044730133333</v>
+        <v>0.2173367684533333</v>
       </c>
       <c r="R3">
-        <v>2.68564025712</v>
+        <v>1.95603091608</v>
       </c>
       <c r="S3">
-        <v>0.0009939084948693848</v>
+        <v>0.0002580980706079547</v>
       </c>
       <c r="T3">
-        <v>0.0009939084948693846</v>
+        <v>0.0002580980706079547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H4">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I4">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J4">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N4">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q4">
-        <v>20.88993289302444</v>
+        <v>42.18203678531944</v>
       </c>
       <c r="R4">
-        <v>188.00939603722</v>
+        <v>379.638331067875</v>
       </c>
       <c r="S4">
-        <v>0.06957898971809534</v>
+        <v>0.0500932372652923</v>
       </c>
       <c r="T4">
-        <v>0.06957898971809533</v>
+        <v>0.0500932372652923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H5">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I5">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J5">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N5">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q5">
-        <v>0.07299306400111111</v>
+        <v>0.0822453949261111</v>
       </c>
       <c r="R5">
-        <v>0.6569375760099999</v>
+        <v>0.7402085543349999</v>
       </c>
       <c r="S5">
-        <v>0.0002431211088917136</v>
+        <v>9.767043974143058E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002431211088917135</v>
+        <v>9.76704397414306E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J6">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N6">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O6">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P6">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q6">
-        <v>4.390263909501555</v>
+        <v>8.097290918332</v>
       </c>
       <c r="R6">
-        <v>39.512375185514</v>
+        <v>72.87561826498799</v>
       </c>
       <c r="S6">
-        <v>0.01462283909590424</v>
+        <v>0.009615930051990015</v>
       </c>
       <c r="T6">
-        <v>0.01462283909590424</v>
+        <v>0.009615930051990015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J7">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.890544</v>
       </c>
       <c r="O7">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P7">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q7">
         <v>3.045612786421334</v>
@@ -883,10 +883,10 @@
         <v>27.410515077792</v>
       </c>
       <c r="S7">
-        <v>0.01014415229751508</v>
+        <v>0.003616814538967656</v>
       </c>
       <c r="T7">
-        <v>0.01014415229751508</v>
+        <v>0.003616814538967656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J8">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N8">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O8">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P8">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q8">
-        <v>213.2094270706058</v>
+        <v>591.1109818412945</v>
       </c>
       <c r="R8">
-        <v>1918.884843635452</v>
+        <v>5319.99883657165</v>
       </c>
       <c r="S8">
-        <v>0.710145724733292</v>
+        <v>0.7019732786777431</v>
       </c>
       <c r="T8">
-        <v>0.7101457247332918</v>
+        <v>0.7019732786777431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J9">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N9">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O9">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P9">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q9">
-        <v>0.7449908736184445</v>
+        <v>1.152532211617111</v>
       </c>
       <c r="R9">
-        <v>6.704917862566</v>
+        <v>10.372789904554</v>
       </c>
       <c r="S9">
-        <v>0.002481372850789845</v>
+        <v>0.001368688520809434</v>
       </c>
       <c r="T9">
-        <v>0.002481372850789844</v>
+        <v>0.001368688520809435</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H10">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N10">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O10">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P10">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q10">
-        <v>0.9690769299003332</v>
+        <v>2.026722359074</v>
       </c>
       <c r="R10">
-        <v>8.721692369103</v>
+        <v>18.240501231666</v>
       </c>
       <c r="S10">
-        <v>0.003227745827948256</v>
+        <v>0.002406832190694511</v>
       </c>
       <c r="T10">
-        <v>0.003227745827948256</v>
+        <v>0.002406832190694511</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H11">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.890544</v>
       </c>
       <c r="O11">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P11">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q11">
-        <v>0.6722678065759999</v>
+        <v>0.7623057629493334</v>
       </c>
       <c r="R11">
-        <v>6.050410259184</v>
+        <v>6.860751866544</v>
       </c>
       <c r="S11">
-        <v>0.002239151032274371</v>
+        <v>0.0009052754765367465</v>
       </c>
       <c r="T11">
-        <v>0.002239151032274371</v>
+        <v>0.0009052754765367465</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H12">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N12">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O12">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P12">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q12">
-        <v>47.06239562597266</v>
+        <v>147.9529210046861</v>
       </c>
       <c r="R12">
-        <v>423.561560633754</v>
+        <v>1331.576289042175</v>
       </c>
       <c r="S12">
-        <v>0.1567527266907557</v>
+        <v>0.1757013492188738</v>
       </c>
       <c r="T12">
-        <v>0.1567527266907557</v>
+        <v>0.1757013492188738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H13">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N13">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O13">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P13">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q13">
-        <v>0.1644442073396667</v>
+        <v>0.2884746054447778</v>
       </c>
       <c r="R13">
-        <v>1.479997866057</v>
+        <v>2.596271449003</v>
       </c>
       <c r="S13">
-        <v>0.0005477213292297203</v>
+        <v>0.0003425777405937418</v>
       </c>
       <c r="T13">
-        <v>0.0005477213292297203</v>
+        <v>0.0003425777405937418</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H14">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N14">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O14">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P14">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q14">
-        <v>0.1642630555416667</v>
+        <v>0.598154510688</v>
       </c>
       <c r="R14">
-        <v>1.478367499875</v>
+        <v>5.383390596191999</v>
       </c>
       <c r="S14">
-        <v>0.0005471179592162787</v>
+        <v>0.000710337814593793</v>
       </c>
       <c r="T14">
-        <v>0.0005471179592162787</v>
+        <v>0.000710337814593793</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H15">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>0.890544</v>
       </c>
       <c r="O15">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P15">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q15">
-        <v>0.113952526</v>
+        <v>0.224982286592</v>
       </c>
       <c r="R15">
-        <v>1.025572734</v>
+        <v>2.024840579328</v>
       </c>
       <c r="S15">
-        <v>0.0003795465344722357</v>
+        <v>0.0002671774983294159</v>
       </c>
       <c r="T15">
-        <v>0.0003795465344722357</v>
+        <v>0.0002671774983294159</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H16">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N16">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O16">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P16">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q16">
-        <v>7.977295370583334</v>
+        <v>43.66592526706666</v>
       </c>
       <c r="R16">
-        <v>71.79565833525001</v>
+        <v>392.9933274035999</v>
       </c>
       <c r="S16">
-        <v>0.02657031764584414</v>
+        <v>0.05185542760640138</v>
       </c>
       <c r="T16">
-        <v>0.02657031764584414</v>
+        <v>0.05185542760640138</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H17">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N17">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O17">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P17">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q17">
-        <v>0.02787405945833334</v>
+        <v>0.08513864057066665</v>
       </c>
       <c r="R17">
-        <v>0.250866535125</v>
+        <v>0.7662477651359999</v>
       </c>
       <c r="S17">
-        <v>9.284131769999956E-05</v>
+        <v>0.000101106310827436</v>
       </c>
       <c r="T17">
-        <v>9.284131769999956E-05</v>
+        <v>0.000101106310827436</v>
       </c>
     </row>
   </sheetData>
